--- a/groups/24-25-Univers/tasks_results/25.01.09.xlsx
+++ b/groups/24-25-Univers/tasks_results/25.01.09.xlsx
@@ -40,7 +40,7 @@
     <t>Костюнин Егор</t>
   </si>
   <si>
-    <t>Селедкин Ярослав</t>
+    <t>Селёдкин Ярослав</t>
   </si>
   <si>
     <t>Лысенко Георгий</t>
@@ -49,7 +49,7 @@
     <t>Трегубович Максим</t>
   </si>
   <si>
-    <t>Мухметов Максим</t>
+    <t>Мухаметов Максим</t>
   </si>
   <si>
     <t>Зайковский Артём</t>

--- a/groups/24-25-Univers/tasks_results/25.01.09.xlsx
+++ b/groups/24-25-Univers/tasks_results/25.01.09.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Результаты" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Результаты!$A$1:$L$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Результаты!$A$1:$L$10</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="46">
   <si>
     <t>№</t>
   </si>
@@ -127,22 +127,34 @@
     <t>1+, 1-</t>
   </si>
   <si>
-    <t>7-</t>
-  </si>
-  <si>
-    <t>3-</t>
+    <t>1+, 9-</t>
+  </si>
+  <si>
+    <t>1+, 4-</t>
+  </si>
+  <si>
+    <t>510</t>
+  </si>
+  <si>
+    <t>1+, 2-</t>
   </si>
   <si>
     <t>1-</t>
   </si>
   <si>
-    <t>510</t>
-  </si>
-  <si>
-    <t>1+, 4-</t>
+    <t>630</t>
+  </si>
+  <si>
+    <t>6-</t>
+  </si>
+  <si>
+    <t>9-</t>
   </si>
   <si>
     <t>703</t>
+  </si>
+  <si>
+    <t>939</t>
   </si>
 </sst>
 </file>
@@ -508,7 +520,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -639,31 +651,31 @@
         <v>31</v>
       </c>
       <c r="B4">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
+      </c>
+      <c r="F4">
         <v>3</v>
       </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-      <c r="E4">
+      <c r="G4">
         <v>1</v>
-      </c>
-      <c r="F4">
-        <v>2</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -686,7 +698,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -698,7 +710,7 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>1</v>
@@ -726,34 +738,40 @@
       <c r="F6" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="3" t="s">
         <v>36</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="I6" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="J6" s="4" t="s">
-        <v>38</v>
+      <c r="J6" s="3" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" s="3" t="s">
+      <c r="G7" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>35</v>
-      </c>
       <c r="J7" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -761,11 +779,51 @@
         <v>41</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>34</v>
+        <v>39</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L8"/>
+  <autoFilter ref="A1:L10"/>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
     <hyperlink ref="C2" r:id="rId2"/>
@@ -792,6 +850,8 @@
     <hyperlink ref="A6" r:id="rId23"/>
     <hyperlink ref="A7" r:id="rId24"/>
     <hyperlink ref="A8" r:id="rId25"/>
+    <hyperlink ref="A9" r:id="rId26"/>
+    <hyperlink ref="A10" r:id="rId27"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/groups/24-25-Univers/tasks_results/25.01.09.xlsx
+++ b/groups/24-25-Univers/tasks_results/25.01.09.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="45">
   <si>
     <t>№</t>
   </si>
@@ -137,9 +137,6 @@
   </si>
   <si>
     <t>1+, 2-</t>
-  </si>
-  <si>
-    <t>1-</t>
   </si>
   <si>
     <t>630</t>
@@ -666,10 +663,10 @@
         <v>3</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -704,7 +701,7 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -767,8 +764,11 @@
       <c r="F7" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="G7" s="4" t="s">
-        <v>40</v>
+      <c r="G7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="J7" s="3" t="s">
         <v>37</v>
@@ -776,7 +776,7 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>39</v>
@@ -785,15 +785,15 @@
         <v>34</v>
       </c>
       <c r="E8" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J8" s="4" t="s">
         <v>42</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>34</v>
@@ -804,7 +804,7 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>35</v>

--- a/groups/24-25-Univers/tasks_results/25.01.09.xlsx
+++ b/groups/24-25-Univers/tasks_results/25.01.09.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="45">
   <si>
     <t>№</t>
   </si>
@@ -85,7 +85,7 @@
     <t>451152</t>
   </si>
   <si>
-    <t>369711</t>
+    <t>520834</t>
   </si>
   <si>
     <t>521344</t>
@@ -675,7 +675,7 @@
         <v>3</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -747,6 +747,9 @@
       <c r="J6" s="3" t="s">
         <v>35</v>
       </c>
+      <c r="K6" s="3" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="2" t="s">
@@ -773,6 +776,9 @@
       <c r="J7" s="3" t="s">
         <v>37</v>
       </c>
+      <c r="K7" s="3" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="2" t="s">
@@ -820,6 +826,9 @@
       </c>
       <c r="J10" s="3" t="s">
         <v>39</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/groups/24-25-Univers/tasks_results/25.01.09.xlsx
+++ b/groups/24-25-Univers/tasks_results/25.01.09.xlsx
@@ -145,7 +145,7 @@
     <t>6-</t>
   </si>
   <si>
-    <t>9-</t>
+    <t>13-</t>
   </si>
   <si>
     <t>703</t>

--- a/groups/24-25-Univers/tasks_results/25.01.09.xlsx
+++ b/groups/24-25-Univers/tasks_results/25.01.09.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Результаты" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Результаты!$A$1:$L$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Результаты!$A$1:$M$10</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="47">
   <si>
     <t>№</t>
   </si>
@@ -52,6 +52,9 @@
     <t>Мухаметов Максим</t>
   </si>
   <si>
+    <t>Мухаметов Максим v2</t>
+  </si>
+  <si>
     <t>Зайковский Артём</t>
   </si>
   <si>
@@ -83,6 +86,9 @@
   </si>
   <si>
     <t>451152</t>
+  </si>
+  <si>
+    <t>369711</t>
   </si>
   <si>
     <t>520834</t>
@@ -517,7 +523,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -526,10 +532,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="12" width="10.7109375" customWidth="1"/>
+    <col min="1" max="13" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -566,86 +572,95 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>24</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="I3" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>28</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B4">
         <v>5</v>
@@ -675,15 +690,18 @@
         <v>3</v>
       </c>
       <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
         <v>3</v>
       </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -713,126 +731,132 @@
         <v>1</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J6" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="J6" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="L6" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D7" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F7" s="3" t="s">
+      <c r="H7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J7" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="G7" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J7" s="3" t="s">
+      <c r="L7" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="K7" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" s="4" t="s">
+      <c r="D10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J10" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="J8" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>34</v>
+      <c r="L10" s="3" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L10"/>
+  <autoFilter ref="A1:M10"/>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
     <hyperlink ref="C2" r:id="rId2"/>
@@ -845,22 +869,24 @@
     <hyperlink ref="J2" r:id="rId9"/>
     <hyperlink ref="K2" r:id="rId10"/>
     <hyperlink ref="L2" r:id="rId11"/>
-    <hyperlink ref="B3" r:id="rId12"/>
-    <hyperlink ref="C3" r:id="rId13"/>
-    <hyperlink ref="D3" r:id="rId14"/>
-    <hyperlink ref="E3" r:id="rId15"/>
-    <hyperlink ref="F3" r:id="rId16"/>
-    <hyperlink ref="G3" r:id="rId17"/>
-    <hyperlink ref="H3" r:id="rId18"/>
-    <hyperlink ref="I3" r:id="rId19"/>
-    <hyperlink ref="J3" r:id="rId20"/>
-    <hyperlink ref="K3" r:id="rId21"/>
-    <hyperlink ref="L3" r:id="rId22"/>
-    <hyperlink ref="A6" r:id="rId23"/>
-    <hyperlink ref="A7" r:id="rId24"/>
-    <hyperlink ref="A8" r:id="rId25"/>
-    <hyperlink ref="A9" r:id="rId26"/>
-    <hyperlink ref="A10" r:id="rId27"/>
+    <hyperlink ref="M2" r:id="rId12"/>
+    <hyperlink ref="B3" r:id="rId13"/>
+    <hyperlink ref="C3" r:id="rId14"/>
+    <hyperlink ref="D3" r:id="rId15"/>
+    <hyperlink ref="E3" r:id="rId16"/>
+    <hyperlink ref="F3" r:id="rId17"/>
+    <hyperlink ref="G3" r:id="rId18"/>
+    <hyperlink ref="H3" r:id="rId19"/>
+    <hyperlink ref="I3" r:id="rId20"/>
+    <hyperlink ref="J3" r:id="rId21"/>
+    <hyperlink ref="K3" r:id="rId22"/>
+    <hyperlink ref="L3" r:id="rId23"/>
+    <hyperlink ref="M3" r:id="rId24"/>
+    <hyperlink ref="A6" r:id="rId25"/>
+    <hyperlink ref="A7" r:id="rId26"/>
+    <hyperlink ref="A8" r:id="rId27"/>
+    <hyperlink ref="A9" r:id="rId28"/>
+    <hyperlink ref="A10" r:id="rId29"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/groups/24-25-Univers/tasks_results/25.01.09.xlsx
+++ b/groups/24-25-Univers/tasks_results/25.01.09.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="47">
   <si>
     <t>№</t>
   </si>
@@ -110,6 +110,12 @@
   </si>
   <si>
     <t>pchelka12</t>
+  </si>
+  <si>
+    <t>DanilGoose</t>
+  </si>
+  <si>
+    <t>kjuby</t>
   </si>
   <si>
     <t>+</t>
@@ -628,10 +634,10 @@
         <v>30</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>28</v>
@@ -654,7 +660,7 @@
     </row>
     <row r="4" spans="1:13">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B4">
         <v>5</v>
@@ -695,7 +701,7 @@
     </row>
     <row r="5" spans="1:13">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -736,120 +742,120 @@
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J6" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="J6" s="3" t="s">
-        <v>35</v>
-      </c>
       <c r="L6" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D7" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F7" s="3" t="s">
+      <c r="H7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J7" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="G7" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>37</v>
-      </c>
       <c r="L7" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/groups/24-25-Univers/tasks_results/25.01.09.xlsx
+++ b/groups/24-25-Univers/tasks_results/25.01.09.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="49">
   <si>
     <t>№</t>
   </si>
@@ -148,10 +148,16 @@
     <t>630</t>
   </si>
   <si>
+    <t>9-</t>
+  </si>
+  <si>
+    <t>18-</t>
+  </si>
+  <si>
+    <t>14-</t>
+  </si>
+  <si>
     <t>6-</t>
-  </si>
-  <si>
-    <t>14-</t>
   </si>
   <si>
     <t>703</t>
@@ -716,7 +722,7 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -814,16 +820,19 @@
       <c r="E8" s="4" t="s">
         <v>43</v>
       </c>
+      <c r="F8" s="4" t="s">
+        <v>44</v>
+      </c>
       <c r="J8" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>36</v>
@@ -837,7 +846,7 @@
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>37</v>

--- a/groups/24-25-Univers/tasks_results/25.01.09.xlsx
+++ b/groups/24-25-Univers/tasks_results/25.01.09.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="51">
   <si>
     <t>№</t>
   </si>
@@ -116,6 +116,12 @@
   </si>
   <si>
     <t>kjuby</t>
+  </si>
+  <si>
+    <t>MaximTreg</t>
+  </si>
+  <si>
+    <t>azzazichka</t>
   </si>
   <si>
     <t>+</t>
@@ -652,10 +658,10 @@
         <v>28</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>28</v>
@@ -666,7 +672,7 @@
     </row>
     <row r="4" spans="1:13">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B4">
         <v>5</v>
@@ -707,7 +713,7 @@
     </row>
     <row r="5" spans="1:13">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -748,123 +754,123 @@
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I6" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J6" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="J6" s="3" t="s">
-        <v>37</v>
-      </c>
       <c r="L6" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7" s="3" t="s">
+      <c r="H7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J7" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="G7" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>39</v>
-      </c>
       <c r="L7" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
